--- a/doc/CS207_2023f _project_kitchen_checklist_release(1).xlsx
+++ b/doc/CS207_2023f _project_kitchen_checklist_release(1).xlsx
@@ -116,6 +116,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>能够合理地调试脚本执行器。具体来说，有三个方向可选</t>
     </r>
     <r>
@@ -1482,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
